--- a/experiment_results/329999P26.xlsx
+++ b/experiment_results/329999P26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1477"/>
+  <dimension ref="A1:I1262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Museums', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Museums', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15246,7 +15246,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15621,7 +15621,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Cruises', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857DC1</t>
+          <t>PRODUCTCODE: 3857NYCNIA</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day tour to Washington DC from New York City. You'll capture the spirit of "the home of the brave and land of the free" One Tree Planted will plant one tree for every passenger.</t>
+          <t>Summarized description:  Niagara Falls overnight tour is a must-do when visiting New York City. We have partnered with One Tree Planted to plant one tree for every passenger that travels with us.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Washington DC Day Trip from New York City</t>
+          <t>Title: 2-Day Niagara Falls and Tannersville Outlet Shopping Tour from New York by Bus</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 2001</t>
+          <t>TotalReviews: 718</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P8</t>
+          <t>PRODUCTCODE: 62527P11</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Visit and learn about the most iconic landmarks of these two historic cities. The Lincoln Memorial, Iwo Jima Memorial, the White House, the U.S. Capitol, the Liberty Bell, Independence Hall and more.</t>
+          <t>Summarized description: If you want to increase this amazing experience choose the option which includes Washington and Philadelphia tour. Choose this combo and save with the most popular tours outside of New York.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Washington DC and Philadelphia in One Day from NYC</t>
+          <t>Title: Niagara Falls in One Day from New York City</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 1281</t>
+          <t>TotalReviews: 711</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11569P1</t>
+          <t>PRODUCTCODE: 132218P43</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Travel by an air-conditioned, Wi-Fi enabled Mercedes Benz Sprinter or Coach Bus. Visit DC’s most iconic landmarks including Arlington National Cemetery, Vietnam, Korean and Jefferson Memorial.</t>
+          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Visit the nation’s capital at Washington, D.C., and check out its most iconic sites including the White House, Lincoln Memorial and so much more.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Washington DC Day Tour from New York City</t>
+          <t>Title: BEST Niagara Falls USA and Washington DC 3-Day Tour from New York</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 821</t>
+          <t>TotalReviews: 177</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857NYCNIA</t>
+          <t>PRODUCTCODE: 132218P54</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls overnight tour is a must-do when visiting New York City. We have partnered with One Tree Planted to plant one tree for every passenger that travels with us.</t>
+          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Take a trip to Niagara Falls for an unforgettable trip! We prioritize your safety by traveling with thoroughly disinfected sightseeing coaches.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: 2-Day Niagara Falls and Tannersville Outlet Shopping Tour from New York by Bus</t>
+          <t xml:space="preserve">Title: BEST Niagara Falls (US) 2-Day Tour from New York City </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 718</t>
+          <t>TotalReviews: 154</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Eco-Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P11</t>
+          <t>PRODUCTCODE: 64702P4</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: If you want to increase this amazing experience choose the option which includes Washington and Philadelphia tour. Choose this combo and save with the most popular tours outside of New York.</t>
+          <t>Summarized description:  Niagara Falls will take your breath away. Your tour will explore the New York side of the falls therefore visa is NOT required. Choose your departure from NYC late at night 11:30PM, to arrive early morning and witness the morning mist rainbows.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls in One Day from New York City</t>
+          <t>Title: Niagara Falls One Day Tour from New York City</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 711</t>
+          <t>TotalReviews: 122</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P43</t>
+          <t>PRODUCTCODE: 3857EAC</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Visit the nation’s capital at Washington, D.C., and check out its most iconic sites including the White House, Lincoln Memorial and so much more.</t>
+          <t>Summarized description: 4-day guided tour of Niagara Falls, Philadelphia, Washington DC, and Amish Country. All hotel accommodations included. We have partnered with One Tree Planted to plant one tree for every passenger.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: BEST Niagara Falls USA and Washington DC 3-Day Tour from New York</t>
+          <t>Title: 4-day Niagara Falls, Washington DC, and Philadelphia Tour from New York</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 177</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P54</t>
+          <t>PRODUCTCODE: 132218P133</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Take a trip to Niagara Falls for an unforgettable trip! We prioritize your safety by traveling with thoroughly disinfected sightseeing coaches.</t>
+          <t>Summarized description: Visit Toronto, Ottawa, Montreal, and Quebec in five days. Ride on the Hornblower Cruise to experience the waterfall views of Niagara Falls. You may enjoy authentic French food in Quebec at your own expense.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: BEST Niagara Falls (US) 2-Day Tour from New York City </t>
+          <t>Title: 5-day Niagara Falls, Toronto, Ottawa, Montreal &amp; Quebec City Tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 154</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64702P4</t>
+          <t>PRODUCTCODE: 132218P44</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls will take your breath away. Your tour will explore the New York side of the falls therefore visa is NOT required. Choose your departure from NYC late at night 11:30PM, to arrive early morning and witness the morning mist rainbows.</t>
+          <t>Summarized description: A valid passport and visa are required to enter Canada and re-entry the U.S. All hotel rooms are based on two Full / Double beds or one King/Queen bed. Maximum occupancy per room is four travelers.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls One Day Tour from New York City</t>
+          <t>Title: Niagara Falls, Toronto and Thousand Islands 3-Day Tour from NYC</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 122</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 221092P3</t>
+          <t>PRODUCTCODE: 3857ECFIVE</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Washington, D.C. from Time Square NYC on a day trip. With a guided bus tour, simply sit back, relax and enjoy the ride.</t>
+          <t>Summarized description: 5-day trip from New York to Washington D.C., Niagara Falls, Toronto and 1000 Islands. One Tree Planted will plant one tree for every passenger on the trip.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Day trip to Washington from New York</t>
+          <t>Title: 5-Day Philadelphia, D.C., Niagara Falls and 1000 Islands Tour from New York City</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 62</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 71843P5</t>
+          <t>PRODUCTCODE: 132218P287</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Washington, D.C. is the capital of the United States. Visit the White House, the Air and Space Museum, and other iconic landmarks.</t>
+          <t>Summarized description: Visit the nation's capital at Washington, D.C., and check out its most iconic sites including the White House, Lincoln Memorial and so much more. Visit the Corning Glass Center and watch the exquisite glass craftsmanship.Explore the power of nature and take an in-depth tour of Niagara Falls!</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Tour to Washington from New York in Spanish</t>
+          <t>Title: 3 Days Washington DC and US Side Niagara Falls Tour from New York</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15471P8</t>
+          <t>PRODUCTCODE: 132218P370</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Visit and walk the most important monuments of Washington as well as the White House, the Capitol and the Arlington Cemetery. One of our professional and certified guides will tell you the history and very important data of each attraction.</t>
+          <t>Summarized description: 4-day trip includes a visit to Niagara Falls and Havard University. Foodie's Choice includes a bite of authentic local taste at Quincy Market.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Washington DC and Monuments Day Tour from New York</t>
+          <t>Title: 4-Day New York Tour to Niagara Falls, Washington and Philadelphia</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 251160P6</t>
+          <t>PRODUCTCODE: 31815P3</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: You will visit the white house, capitol, georgetown, Lincoln monument. A recommended excursion for children and adults. You will see the most important of Washington departing from New York.</t>
+          <t>Summarized description: Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks on Thanksgiving, Christmas, New Year.Capitol 360 Panorama Tour: get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Tour to Washington from New York in Spanish</t>
+          <t xml:space="preserve">Title: 4-Day Niagara Falls, Philadelphia, Washington DC Tour from New York </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2625WASHINGTON</t>
+          <t>PRODUCTCODE: 62527P12</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the White House, US Capitol, Lincoln Memorial and Arlington National Cemetery. Get a full day to explore America's capital city on this independent day trip from New York.</t>
+          <t>Summarized description:  Niagara Falls is one of the most amazing natural wonders of the world. Visit and learn about the most iconic landmarks of Washington D.C. and Philadelphia.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Independent Day Trip to Washington DC from New York by Rail</t>
+          <t>Title: Two Day Combo: Niagara Falls and Washington with Philadelphia from New York</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P14</t>
+          <t>PRODUCTCODE: 253929P10</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls is one of the most important and impressive natural wonders in the world. On your visit to New York, don’t miss the opportunity to visit the Falls.</t>
+          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Take a trip to Niagara Falls for an unforgettable trip! We prioritize your safety by traveling with thoroughly disinfected sightseeing coaches and our professional well-trained tour escort.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls in a Day from New York City</t>
+          <t>Title: New York City + Niagara Falls 2-Day Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P310</t>
+          <t>PRODUCTCODE: 31815P26</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls is one of the Seven "New World Wonders" Stay Overnight in scenic area hotel, few minutes walk to Niagara Falls. In-depth tour of Niagara River: Whirlpool Park, Old Fort Niagara and Great Lake Ontario.</t>
+          <t>Summarized description: Visit Finger Lakes and in-depth tour of Watkins Glen State Park. Have a close touch of the Falls and experience a maximum of time at Niagara Falls.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  2-Days Niagara Falls USA, Watkins Glen and Scenic Hotel Tour </t>
+          <t>Title: 2-Day Niagara Falls Tour from New York or New Jersey</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 241670P4</t>
+          <t>PRODUCTCODE: 31815P2</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: The American waterfall, the Herradura or Horseshoe waterfall and the Bridal Veil waterfall make up Niagara Falls. Join us on this incredible adventure and explore one of the natural wonders of the world.</t>
+          <t>Summarized description: Visit Niagara Falls, Washington, DC (Capitol 360 Panorama Tour), Philadelphia (Independence Hall, Liberty Bell) Visit Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks in holidays. Get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls 1-Day Tour from NY</t>
+          <t>Title: 3-Day Niagara Falls, Washington DC, Philadelphia Tour from New York/New Jersey</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P128</t>
+          <t>PRODUCTCODE: 253929P11</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: It is a 3-day tour from New York to Niagara Falls, Corning, and Thousand Island. Optional admission means you will need to pay with your own expenses for those attractions which are not included.</t>
+          <t>Summarized description: Visit the nation’s capital at Washington, D.C., and check out its most iconic sites. Visit the Corning Glass Center and watch the exquisite glass craftsmanship.Explore the power of nature and take an in-depth tour to Niagara Falls.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: 3-Day Niagara Falls, Corning &amp; Thousand Island Tour from New York</t>
+          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen from New York</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11413P84</t>
+          <t>PRODUCTCODE: 11413P82</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the stunning beauty and power of the world-famous Niagara Falls from above and below. Explore the pristine beauty of New England and do some bargain shopping along the way.</t>
+          <t>Summarized description:  Niagara Falls, Washington DC, Philadelphia and Amish Country on this 4-day trip. Drive through amazing sceneries in Finger Lakes country, see amazing relics of United States history, and discover Amish culture.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: 2-Day Niagara Falls Experience from NYC</t>
+          <t>Title: 4-Day Niagara Falls, Washington DC, Philadelphia &amp; Amish Country</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P370</t>
+          <t>PRODUCTCODE: 103133P5</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: 4-day trip includes a visit to Niagara Falls and Havard University. Foodie's Choice includes a bite of authentic local taste at Quincy Market.</t>
+          <t>Summarized description: Exclusive 3 days tour provides an opportunity to see top attractions at Niagara Falls and Washington DC. Tour package includes transportation, hotel accommodation for 2 nights and tour guide. Tour guide will explain about the popular activities to do at the Niagara Falls.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: 4-Day New York Tour to Niagara Falls, Washington and Philadelphia</t>
+          <t>Title: In-depth Niagara Falls &amp; Washington DC Tour from New York &amp; New Jersey</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31815P3</t>
+          <t>PRODUCTCODE: 103133P51</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks on Thanksgiving, Christmas, New Year.Capitol 360 Panorama Tour: get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
+          <t>Summarized description: Explore D.C. with an In-depth tour. Exclusive 4 day guided tour of the top attractions of US east coast. Niagara Falls, D.c., Thousand Islands and so much more!</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 4-Day Niagara Falls, Philadelphia, Washington DC Tour from New York </t>
+          <t>Title: 4 Days Niagara Falls, Washington D.C. &amp; Thousand Islands Tour from New York</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P12</t>
+          <t>PRODUCTCODE: 15081P22</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls is one of the most amazing natural wonders of the world. Visit and learn about the most iconic landmarks of Washington D.C. and Philadelphia.</t>
+          <t>Summarized description: 2-day trip from New York City. Travel through the Hudson Valley by train and soak up the beautiful views. Enjoy fun-filled times of sightseeing, shopping, dining, and touring.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Two Day Combo: Niagara Falls and Washington with Philadelphia from New York</t>
+          <t>Title: 2-Day Niagara Falls Trip from New York City by Train and Air</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 253929P10</t>
+          <t>PRODUCTCODE: 150592P3</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Take a trip to Niagara Falls for an unforgettable trip! We prioritize your safety by traveling with thoroughly disinfected sightseeing coaches and our professional well-trained tour escort.</t>
+          <t>Summarized description: This tour includes pick-up services from/to any Midtown hotel. Our guests will fly to the Niagara Falls area and our journey will start at American side of Niagara Falls.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: New York City + Niagara Falls 2-Day Tour</t>
+          <t>Title: 1-Day Niagara Falls Tour with Flight from New York</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P50</t>
+          <t>PRODUCTCODE: 122220P9</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Take a flight from the Big Apple to Niagara Falls, New York. Enjoy a fun-filled day of sightseeing, shopping, dining, and touring.</t>
+          <t>Summarized description: Visit Washington, DC (White House, US Capitol, Jefferson Memorial, Korean War Veterans Memorial, Lincoln Memorial, Potomac River Cruise, Vietnam Veterans Memorial), Philadelphia, Princeton.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls Day Trip by Air with Cruise</t>
+          <t>Title: 2-Day Washington DC, Philadelphia and Amish Country Tour from New York City</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31815P2</t>
+          <t>PRODUCTCODE: 401096P18</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Niagara Falls, Washington, DC (Capitol 360 Panorama Tour), Philadelphia (Independence Hall, Liberty Bell) Visit Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks in holidays. Get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
+          <t>Summarized description: Travel by comfortable Minibus or Coach bus with a professional guide. View all landmarks including the Capitol Building, White House and Washington Monuments. Visit Arlington Cemetery and the Smithsonian Air and Space Museum.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: 3-Day Niagara Falls, Washington DC, Philadelphia Tour from New York/New Jersey</t>
+          <t>Title: Washington DC Full Day Guided Tour from New York</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P126</t>
+          <t>PRODUCTCODE: 271207P6</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the power of nature and take an in-depth tour to Niagara Falls. Two choice of itinerary based on your selection(US side or Canada side). Upgrade the cross-border itinerary at your own expense.</t>
+          <t>Summarized description: The best way to fully experience Central Park is on a bike. The museum features an impressive collection of over 1.5 million artifacts, photographs and rare manuscripts. The highest-rating cruise allows you to sail on the New York Harbor and see the Statue of Liberty up close.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls 3-Day Tour From New York by Train(Roundtrip)</t>
+          <t>Title: New York Hop-on Hop-off Tour 5 Days Packages</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P45</t>
+          <t>PRODUCTCODE: 9169P27</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Visit four spectacular cities in Eastern Canada: Toronto, Ottawa, Montreal, and Quebec. Ride on the Hornblower Cruise to experience the waterfall views of Niagara Falls from multiple angles.</t>
+          <t>Summarized description: 5-day trip to New York. See the Macy Thanksgiving Day Parade. Enjoy a Thanksgiving Dinner with all the trimmings. The tour also features a visit to the new 911 Museum.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: US&amp;CAN Niagara Falls,Toronto,Ottawa,Montreal,5-Day Maple Foliage Tour from NY</t>
+          <t>Title: 5-Day New York and Macy's Thanksgiving Day Parade Trip from New Hampshire</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P89</t>
+          <t>PRODUCTCODE: 248057P72</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Niagara Falls is one of the Seven "New World Wonders" of the world. Niagara Falls is located in the Finger Lake Area of Canada.</t>
+          <t>Summarized description: With free WIFI. • New York• Philadelphia                ; Liberty Bell                ; Rocky Steps                ; Lincoln                ; Amish Farm Country Country                .</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: 2-Day Corning+NiagaraFalls Tour from New York NF2E</t>
+          <t>Title: 2-Day Washington DC, Philadelphia and the Amish Country Tour from New York</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 318681P38</t>
+          <t>PRODUCTCODE: 8517P4</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the capital of USA with a guide in a day with all logistics, transport, and entrance fees included by comfortable minivan or SUV. Cherish the landmarks including the White House and Washington Monument. Visit Arlington Cemetery and the Smithsonian National Museum of Natural History.</t>
+          <t>Summarized description: 2-Day trip to Washington DC from New York City by Bus. A full package that offers the best value for seeing the United States of America's capital.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Full day Washington DC Tour from New York City</t>
+          <t>Title: 2-Day Washington DC and Philadelphia Tour by Bus</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P5</t>
+          <t>PRODUCTCODE: 145071P69</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive 3 days tour provides an opportunity to see top attractions at Niagara Falls and Washington DC. Tour package includes transportation, hotel accommodation for 2 nights and tour guide. Tour guide will explain about the popular activities to do at the Niagara Falls.</t>
+          <t>Summarized description: Visit the spectacular Watkins Glen State Park, a nature paradise full of canyons and waterfalls. Learn more about the beautiful art and craft of glass with a visit to the Corning Museum of Glass.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: In-depth Niagara Falls &amp; Washington DC Tour from New York &amp; New Jersey</t>
+          <t>Title: 2-Day Niagara Falls Tour From New York/New Jersey with Corning Glass Museum</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Museums', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P51</t>
+          <t>PRODUCTCODE: 103133P124</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Explore D.C. with an In-depth tour. Exclusive 4 day guided tour of the top attractions of US east coast. Niagara Falls, D.c., Thousand Islands and so much more!</t>
+          <t>Summarized description: Exclusive spring seasonal tour! Experience the best views of Spring Season - Cherry Blossom Tour. Limited Availability, Limited Dates. For more information or to book a tour, visit www.cherryblossomtour.com.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: 4 Days Niagara Falls, Washington D.C. &amp; Thousand Islands Tour from New York</t>
+          <t>Title: 1-Day Washington D.C. Cherry Blossom Sightseeing Tour from New York/New Jersey</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P21</t>
+          <t>PRODUCTCODE: 151846P229</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: The New York in Day Tour takes you to the Statue of Liberty and Ellis Island in the morning, then on a full city stroll in the afternoon. You’ll see Times Square, Rockefeller Center, St. Patrick’s Cathedral, 5th Avenue, and Grand Central Terminal. Finish your day atop the Empire State building enjoying expansive views of the city.</t>
+          <t>Summarized description: Washington, D.C. is home to the National Museum of Natural History and the Air and Space Museum. Ground Transportation offers free WiFi with free WiFi.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: New York in a Day with Statue of Liberty, Midtown &amp; Empire State Building</t>
+          <t>Title: 1-Day Washington, DC Tour from New York City</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P22</t>
+          <t>PRODUCTCODE: 145071P72</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: 2-day trip from New York City. Travel through the Hudson Valley by train and soak up the beautiful views. Enjoy fun-filled times of sightseeing, shopping, dining, and touring.</t>
+          <t>Summarized description: Learn about local culture with in-depth tours and activities. Encounter rich historical landmarks with expert guides. Enjoy activities and tours that are perfect for the whole family.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: 2-Day Niagara Falls Trip from New York City by Train and Air</t>
+          <t>Title: 3-Day East Coast Tour From NYC: New York, Washington DC, Philadelphia</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150592P3</t>
+          <t>PRODUCTCODE: 103133P106</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: This tour includes pick-up services from/to any Midtown hotel. Our guests will fly to the Niagara Falls area and our journey will start at American side of Niagara Falls.</t>
+          <t>Summarized description: 6 day east coast tour includes New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls. Tour package includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: 1-Day Niagara Falls Tour with Flight from New York</t>
+          <t>Title: 6-Day Niagara Falls, Philadelphia, D.C., NYC &amp; Boston Deluxe Tour from NY</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P9</t>
+          <t>PRODUCTCODE: 248057P115</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Washington, DC (White House, US Capitol, Jefferson Memorial, Korean War Veterans Memorial, Lincoln Memorial, Potomac River Cruise, Vietnam Veterans Memorial), Philadelphia, Princeton.</t>
+          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: 2-Day Washington DC, Philadelphia and Amish Country Tour from New York City</t>
+          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 401096P18</t>
+          <t>PRODUCTCODE: 232122P4</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Travel by comfortable Minibus or Coach bus with a professional guide. View all landmarks including the Capitol Building, White House and Washington Monuments. Visit Arlington Cemetery and the Smithsonian Air and Space Museum.</t>
+          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Washington DC Full Day Guided Tour from New York</t>
+          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 124350P4</t>
+          <t>PRODUCTCODE: 248057P48</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy your spring break with the breathtaking cherry blossoms in Washington D.C. Travel with professional photographer to capture all the wonders of your trip.</t>
+          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Washington D.C. Cherry Blossom 1-Day Tour from New York</t>
+          <t xml:space="preserve">Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns </t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210642P1</t>
+          <t>PRODUCTCODE: 248057P69</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Liberty Bell and Independence Hall in Philadelphia. Visit the Rocky Steps in front of the Philadelphia Museum of Art. Admire key Washington sites such as National Mall and Lincoln Memorial.</t>
+          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Discover Washington and Philadelphia in 1 Day</t>
+          <t xml:space="preserve">Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns </t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6349NYCDAY</t>
+          <t>PRODUCTCODE: 232122P1</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day tour includes travel by bus and boat. See Times Square, the US Customs building, Federal Hall, Wall Street, the 9/11 Memorial and more.</t>
+          <t>Summarized description: Learn more of the unique history, culture, and core spirit of New York City. Take in the historical sights of Philadelphia, the birthplace of American democracy. Feel the thundering power of the sights and sounds of Niagara Falls.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: New York in One Day Guided Sightseeing Tour</t>
+          <t>Title: 6-Day U.S. East Coast Tour Package from New York City</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P538</t>
+          <t>PRODUCTCODE: 145071P84</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beating heart of the American government on a private tour of Washington DC. Visit the Smithsonian National Museum of American History and see the White House and Lincoln Memorial. Travel from NYC by private vehicle.</t>
+          <t>Summarized description: Learn about local culture with in-depth tours and activities. Encounter rich historical landmarks with expert guides. Visit locations designated as World Heritage Sites by the United Nations.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Washington DC from NYC Private Full Day Trip by Car </t>
+          <t>Title: 4-Day East Coast Tour from New York to Niagara Falls, Philadelphia, D.C., Boston</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 376398P60</t>
+          <t>PRODUCTCODE: 248057P93</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the heart of NYC on our Explore Downtown route. Travel through iconic areas like Times Square, 5th Avenue, Broadway and Wall Street. Look up to see the city's famous skyscrapers.</t>
+          <t>Summarized description: Washington DC, Philadelphia, Niagara Falls, Corning Museum of Glass, Capitol Hill, Liberty Bell, Independence Hall, Jefferson Memorial, Lincoln Memorial, Thousand Islands.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: New York Sightseeing Bus Tour</t>
+          <t>Title: 4-Day Bus Tour to Washington D.C., Niagara Falls and Amish Village from New York</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P28</t>
+          <t>PRODUCTCODE: 379451P4</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Washington, DC, is a compact city on the Potomac River, bordering the states of Maryland and Virginia. Philadelphia, Pennsylvania’s largest city, is notable for its rich history, on display at the Liberty Bell.</t>
+          <t>Summarized description: One-of-a-kind 3-day tour to Philadelphia, Washington D.C., and Niagara Falls. Enjoy the breathtaking views of Niagara Falls, explore the Corning Museum of Glass, and walk through Watkins Glen State Park.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Washington and Philadelphia 1 - Day Guide Trip (from New York City)</t>
+          <t>Title: 4-Day Tour-New York, Washington DC and Niagara Falls</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P72</t>
+          <t>PRODUCTCODE: 5533P114</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: With free WIFI. • New York• Philadelphia                ; Liberty Bell                ; Rocky Steps                ; Lincoln                ; Amish Farm Country Country                .</t>
+          <t>Summarized description: 5-Day tour offers a deep dive into the distinct neighborhoods and cultures that make up New York City, Washington DC and Niagara Falls. Highlights include Times Square, the Broadway Theater District, Grand Central Terminal, the Brooklyn Bridge and more.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: 2-Day Washington DC, Philadelphia and the Amish Country Tour from New York</t>
+          <t>Title: 5-Day New York+Washington DC+Niagara Falls&amp; With Airport Transfer</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8517P4</t>
+          <t>PRODUCTCODE: 145071P71</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: 2-Day trip to Washington DC from New York City by Bus. A full package that offers the best value for seeing the United States of America's capital.</t>
+          <t>Summarized description: Climb aboard the Maid of the Mist and ride into the mists thrown up by the roaring cascade. Visit Washington, D.C., the famous monuments, the vast museums, and the Americana that characterize this historic city.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: 2-Day Washington DC and Philadelphia Tour by Bus</t>
+          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen from New York</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 235561P8</t>
+          <t>PRODUCTCODE: 103133P90</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: This 1-day tour is a great opportunity to get to know the vibrant capital of the United States, Washington DC. You will visit representative places such as the Arlington Cemetery, the White House, the Obelisk, the Iwo Jima Memorial, the Air and Space Museum and many other amazing places.</t>
+          <t>Summarized description: Experience North Americas Largest Falls the "Niagara Falls" with the most famous "Maid of the Mist" Discover the United States Capital the Washington D.C. and visit the birthplace of American democracy.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Washington excursion</t>
+          <t>Title: Niagara Falls, New York, D.C. &amp; Boston Tour from New York (Airport Transfers)</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 151846P229</t>
+          <t>PRODUCTCODE: 103133P102</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Washington, D.C. is home to the National Museum of Natural History and the Air and Space Museum. Ground Transportation offers free WiFi with free WiFi.</t>
+          <t>Summarized description: Tour includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide. New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: 1-Day Washington, DC Tour from New York City</t>
+          <t>Title: 6 Days USA East Coast Economic Tour from New York (with Transfers)- Group Option</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 69039P3</t>
+          <t>PRODUCTCODE: 232122P5</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Every Thursday of the year in Italian, you can travel from New York to Washington DC. Learn about the White House and the Capitol. See the most important monuments of the country.</t>
+          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Day Trips from New York to Washington DC in Italian</t>
+          <t>Title: 2-Day Bus Tour to Washington, D.C.,Philadelphia from New York (Super Value Tour)</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P72</t>
+          <t>PRODUCTCODE: 103133P38</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about local culture with in-depth tours and activities. Encounter rich historical landmarks with expert guides. Enjoy activities and tours that are perfect for the whole family.</t>
+          <t>Summarized description: A 5-day economic tour, exploring the top US east coast cities and their premier attractions. Visit iconic attraction in New York, D.C., Philly, Boston. Enjoy Special Meals: Boston Lobster Roll and New England clam chowder.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: 3-Day East Coast Tour From NYC: New York, Washington DC, Philadelphia</t>
+          <t>Title: 5-Days Niagara Falls, Philadelphia,D.C., New York &amp; Boston from New York</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P516</t>
+          <t>PRODUCTCODE: 5533P82</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Niagara Falls State Park with a Private Guide. Experience the beauty and force of nature at Niagara Falls, a natural wonder of the world.</t>
+          <t>Summarized description: This 3-Day tour offers a deep dive into the distinct neighborhoods and cultures that make up New York City. The tour includes two nights hotel accomodation and single-trip private airport transfer service.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Niagara Falls from NYC One-Day Private Trip by Car </t>
+          <t>Title: 3 Day Tour-Best of New York and Washington DC</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P121</t>
+          <t>PRODUCTCODE: 248057P49</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Itinerary will be change in the winter due to certain attraction close for winter. Visit Niagara Falls within the shortest time. Experience the Watkins Glen in Finger Lake Area.</t>
+          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: 2-Day USA Secret Caverns/Watkins Glen + Niagara Falls Tour (NYC departure)(NF2)</t>
+          <t>Title: 2-Day Bus Tour to Washington, D.C., Philadelphia from New York</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P58</t>
+          <t>PRODUCTCODE: 248057P88</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Visit and learn about the most iconic landmarks of these two historic cities. Round-trip transfer from New York City on a comfortable motor coach.</t>
+          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: One Day Washington DC and Philadelphia Tour from New York City</t>
+          <t>Title: 2-Day Bus Tour to Washington, D.C., Philadelphia from New York</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 232122P3</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19429,3231 +19429,6 @@
       <c r="H1262" t="inlineStr"/>
       <c r="I1262" t="inlineStr"/>
     </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the spectacular Watkins Glen State Park, a nature paradise full of canyons and waterfalls. Learn more about the beautiful art and craft of glass with a visit to the Corning Museum of Glass. Ride aboard the Maid of the Mist for a close up experience with the Niagara Falls.</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr"/>
-      <c r="I1263" t="inlineStr"/>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>Title: 2-Day Niagara Falls Tour with Watkins Glenn &amp; Corning Glass Museum</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr"/>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr"/>
-      <c r="I1264" t="inlineStr"/>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr"/>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr"/>
-      <c r="I1265" t="inlineStr"/>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr"/>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr"/>
-      <c r="I1266" t="inlineStr"/>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 132218P260</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr"/>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr"/>
-      <c r="I1267" t="inlineStr"/>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>Summarized description: Travel with thoroughly disinfected sightseeing coach and our professional well-trained tour escort. Visit iconic sites in New York. Pack an array of top landmarks and attractions on the east coast.</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr"/>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr"/>
-      <c r="I1268" t="inlineStr"/>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>Title: New York, Philadelphia, D.C. 4-Day Tour with Airport Pickup</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr"/>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr"/>
-      <c r="I1269" t="inlineStr"/>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr"/>
-      <c r="I1270" t="inlineStr"/>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr"/>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr"/>
-      <c r="I1271" t="inlineStr"/>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 232122P4</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr"/>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr"/>
-      <c r="I1272" t="inlineStr"/>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr"/>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr"/>
-      <c r="I1273" t="inlineStr"/>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr"/>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr"/>
-      <c r="I1274" t="inlineStr"/>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr"/>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr"/>
-      <c r="I1275" t="inlineStr"/>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr"/>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr"/>
-      <c r="I1276" t="inlineStr"/>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P48</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr"/>
-      <c r="I1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr"/>
-      <c r="I1278" t="inlineStr"/>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns </t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr"/>
-      <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr"/>
-      <c r="I1279" t="inlineStr"/>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr"/>
-      <c r="I1280" t="inlineStr"/>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr"/>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr"/>
-      <c r="I1281" t="inlineStr"/>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P69</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr"/>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr"/>
-      <c r="I1282" t="inlineStr"/>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr"/>
-      <c r="I1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns </t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
-      <c r="I1284" t="inlineStr"/>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr"/>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr"/>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr"/>
-      <c r="I1285" t="inlineStr"/>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours', 'Cultural Cruises', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr"/>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr"/>
-      <c r="I1286" t="inlineStr"/>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 232122P1</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
-      <c r="I1287" t="inlineStr"/>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn more of the unique history, culture, and core spirit of New York City. Take in the historical sights of Philadelphia, the birthplace of American democracy. Feel the thundering power of the sights and sounds of Niagara Falls.</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr"/>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr"/>
-      <c r="I1288" t="inlineStr"/>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Title: 6-Day U.S. East Coast Tour Package from New York City</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr"/>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr"/>
-      <c r="I1289" t="inlineStr"/>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr"/>
-      <c r="I1290" t="inlineStr"/>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr"/>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr"/>
-      <c r="I1291" t="inlineStr"/>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 379451P4</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr"/>
-      <c r="I1292" t="inlineStr"/>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>Summarized description: One-of-a-kind 3-day tour to Philadelphia, Washington D.C., and Niagara Falls. Enjoy the breathtaking views of Niagara Falls, explore the Corning Museum of Glass, and walk through Watkins Glen State Park.</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr"/>
-      <c r="I1293" t="inlineStr"/>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>Title: 4-Day Tour-New York, Washington DC and Niagara Falls</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr"/>
-      <c r="I1294" t="inlineStr"/>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr"/>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr"/>
-      <c r="I1295" t="inlineStr"/>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr"/>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr"/>
-      <c r="I1296" t="inlineStr"/>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5533P114</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr"/>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr"/>
-      <c r="I1297" t="inlineStr"/>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>Summarized description: 5-Day tour offers a deep dive into the distinct neighborhoods and cultures that make up New York City, Washington DC and Niagara Falls. Highlights include Times Square, the Broadway Theater District, Grand Central Terminal, the Brooklyn Bridge and more.</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr"/>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr"/>
-      <c r="I1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>Title: 5-Day New York+Washington DC+Niagara Falls&amp; With Airport Transfer</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr"/>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr"/>
-      <c r="I1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr"/>
-      <c r="I1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr"/>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr"/>
-      <c r="I1301" t="inlineStr"/>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 379451P2</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr"/>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the awe-inspiring beauty of Niagara Falls over three days. Then, spend a day in New York City exploring famous landmarks including One World Trade Center, Times Square, and the Statue of Liberty.</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr"/>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr"/>
-      <c r="I1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>Title: 3-Day Tour to Niagara Falls and New York City</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr"/>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr"/>
-      <c r="I1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr"/>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr"/>
-      <c r="I1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 103133P63</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr"/>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr"/>
-      <c r="I1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>Summarized description: 3-day guided tour of Niagara Falls and Washington D.C. No.1 Preferred Tour by Locals, Recommended for Short Trips. Also an extensive city tour of the best American attractions in Washington DC.</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr"/>
-      <c r="I1308" t="inlineStr"/>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Title: 3 Days Niagara Falls &amp; Washington D.C. Bus Tour from New York</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr"/>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr"/>
-      <c r="I1309" t="inlineStr"/>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P60</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr"/>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Summarized description: Washington DC, Philadelphia, Niagara Falls, Corning Museum of Glass, Capitol Hill, Liberty Bell, Independence Hall, Jefferson Memorial, Lincoln Memorial, Thousand Islands.</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr"/>
-      <c r="I1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Title: 4-Day Bus Tour to Washington D.C., Niagara Falls and Amish Village from New York</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr"/>
-      <c r="I1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr"/>
-      <c r="I1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr"/>
-      <c r="I1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P59</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr"/>
-      <c r="I1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Summarized description: Washington DC, Philadelphia, Niagara Falls, Corning Museum of Glass, Capitol Hill, Liberty Bell, Independence Hall, Jefferson Memorial, Lincoln Memorial, Thousand Islands.</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Title: 4-Day Bus Tour to Washington D.C., Niagara Falls and Amish Village from New York</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P57</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Summarized description: Washington DC, Philadelphia, Niagara Falls, Corning Museum of Glass, Capitol Hill, Liberty Bell, Independence Hall, Jefferson Memorial, Lincoln Memorial, Thousand Islands.</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>Title: 4-Day Bus Tour to Washington D.C., Niagara Falls and Amish Village from New York</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 23253P1</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Summarized description: This week long East Coast tour blends Eastern Coast's finest experiences. Tour historic landmarks such as the Statue of Liberty and the Ground Zero Site. Visit the power seat of US governance: Capitol Hill, White House and the Library of Congress.</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>Title: 7 Day-USA Gala East Coast-New York-Philadelphia-Washington DC-Harrisburg-Niagara</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P58</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Summarized description: Washington DC, Philadelphia, Niagara Falls, Corning Museum of Glass, Capitol Hill, Liberty Bell, Independence Hall, Jefferson Memorial, Lincoln Memorial, Thousand Islands.</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>Title: 4-Day Bus Tour to Washington D.C., Niagara Falls and Amish Village from New York</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P89</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Summarized description:  Niagara Falls from the US Side and the Canada Side, an unforgettable experience. Tour the "Paris of North America", Montreal, and visit the main venue of the 1976 Summer Olympics, the Olympic Stadium. Get a chance to see the center of Canada's government at Ottawa.</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: 4-Day Canada, Montreal, Ottawa, Toronto &amp; Niagara Falls Bus Tour from New York </t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P50</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Summarized description:  Niagara Falls from the US Side and the Canada Side, an unforgettable experience. Tour the "Paris of North America", Montreal, and visit the main venue of the 1976 Summer Olympics, the Olympic Stadium. Get a chance to see the center of Canada's government at Ottawa.</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: 4-Day Canada, Montreal, Ottawa, Toronto &amp; Niagara Falls Bus Tour from New York </t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 145071P71</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Summarized description: Climb aboard the Maid of the Mist and ride into the mists thrown up by the roaring cascade. Visit Washington, D.C., the famous monuments, the vast museums, and the Americana that characterize this historic city.</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen from New York</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 103133P90</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Summarized description: Experience North Americas Largest Falls the "Niagara Falls" with the most famous "Maid of the Mist" Discover the United States Capital the Washington D.C. and visit the birthplace of American democracy.</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr"/>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr"/>
-      <c r="I1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>Title: Niagara Falls, New York, D.C. &amp; Boston Tour from New York (Airport Transfers)</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr"/>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr"/>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr"/>
-      <c r="I1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr"/>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr"/>
-      <c r="I1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr"/>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr"/>
-      <c r="I1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2625NIAUSA</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr"/>
-      <c r="I1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>Summarized description: Fly to Upstate New York and tour the majestic Falls on the US side. Take a ride on the Maid of the Mist. At the end of an amazing day you'll take an evening flight back to NYC.</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr"/>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr"/>
-      <c r="E1358" t="inlineStr"/>
-      <c r="F1358" t="inlineStr"/>
-      <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr"/>
-      <c r="I1358" t="inlineStr"/>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>Title: Niagara Falls USA Guided Day Trip from New York City by Air</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr"/>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr"/>
-      <c r="E1359" t="inlineStr"/>
-      <c r="F1359" t="inlineStr"/>
-      <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr"/>
-      <c r="I1359" t="inlineStr"/>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr"/>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr"/>
-      <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr"/>
-      <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr"/>
-      <c r="I1360" t="inlineStr"/>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr"/>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr"/>
-      <c r="E1361" t="inlineStr"/>
-      <c r="F1361" t="inlineStr"/>
-      <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr"/>
-      <c r="I1361" t="inlineStr"/>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 15081P69</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr"/>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr"/>
-      <c r="E1362" t="inlineStr"/>
-      <c r="F1362" t="inlineStr"/>
-      <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr"/>
-      <c r="I1362" t="inlineStr"/>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>Summarized description:  Niagara Falls is a quick 60-minute flight from New York City. Enjoy a fun-filled sightseeing shopping, dining, and touring excursion. See the local sites, like museums, casinos, observatories, and much more.</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr"/>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr"/>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr"/>
-      <c r="I1363" t="inlineStr"/>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>Title: Niagara Falls Fireworks 2-Day Trip from NYC</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr"/>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr"/>
-      <c r="I1364" t="inlineStr"/>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr"/>
-      <c r="I1365" t="inlineStr"/>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1366" t="inlineStr"/>
-      <c r="C1366" t="inlineStr"/>
-      <c r="D1366" t="inlineStr"/>
-      <c r="E1366" t="inlineStr"/>
-      <c r="F1366" t="inlineStr"/>
-      <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr"/>
-      <c r="I1366" t="inlineStr"/>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 15081P8</t>
-        </is>
-      </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
-        <is>
-          <t>Summarized description: Just 60 minutes is the flight time for a trip from NYC to Niagara. Your trip includes lunch, airfare, all transfers and tickets to the famous Maid of the Mist sightseeing cruise.</t>
-        </is>
-      </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
-      <c r="I1368" t="inlineStr"/>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="inlineStr">
-        <is>
-          <t>Title: New York City to Niagara Falls by Air</t>
-        </is>
-      </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
-      <c r="I1369" t="inlineStr"/>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr"/>
-      <c r="I1370" t="inlineStr"/>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 8517P2</t>
-        </is>
-      </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
-        <is>
-          <t>Summarized description: 2-Day trip to Niagara Falls by bus. Full package that offers the best value for seeing the magnificent Niagara Falls. Depart from the heart of Times Square and embark on a 2-day trip.</t>
-        </is>
-      </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="inlineStr">
-        <is>
-          <t>Title: 2-Day Niagara Falls Tour by Bus</t>
-        </is>
-      </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1375" t="inlineStr"/>
-      <c r="C1375" t="inlineStr"/>
-      <c r="D1375" t="inlineStr"/>
-      <c r="E1375" t="inlineStr"/>
-      <c r="F1375" t="inlineStr"/>
-      <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr"/>
-      <c r="I1375" t="inlineStr"/>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 8517P3</t>
-        </is>
-      </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>Summarized description: Travel to Washington DC by Sprinter or Coach Bus. Hop on a Hop-On Hop-Off Double Decker tour explaining the iconic landmarks, sights, museums in Washington DC. Return to New York Early Evening.</t>
-        </is>
-      </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>Title: Washington DC Hop-On Hop-Off Day Tour from NYC</t>
-        </is>
-      </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 103133P102</t>
-        </is>
-      </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide. New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls.</t>
-        </is>
-      </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>Title: 6 Days USA East Coast Economic Tour from New York (with Transfers)- Group Option</t>
-        </is>
-      </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5290DPNIADAY</t>
-        </is>
-      </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>Summarized description: Fly by private 30-seater plane from New York City to the incredible Niagara Falls. Enjoy a high-speed 1.5-hour flight straight to the falls for five hours of free time.</t>
-        </is>
-      </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>Title: Exclusive: Niagara Falls Day Trip from New York by Private Plane</t>
-        </is>
-      </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Aerial Tours']</t>
-        </is>
-      </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 103133P126</t>
-        </is>
-      </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>Summarized description: Experience the best views of Spring Season - Cherry Blossom Tour. Visit the most famous Hershey's Chocolate World. Get a chance to explore top attractions in DC - White House, Jefferson Memorial.</t>
-        </is>
-      </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
-      <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>Title: 2-Day Cherry Blossom (D.C.) &amp; Hershey's Chocolate World Tour from New York/NJ</t>
-        </is>
-      </c>
-      <c r="B1394" t="inlineStr"/>
-      <c r="C1394" t="inlineStr"/>
-      <c r="D1394" t="inlineStr"/>
-      <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr"/>
-      <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr"/>
-      <c r="I1394" t="inlineStr"/>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1395" t="inlineStr"/>
-      <c r="C1395" t="inlineStr"/>
-      <c r="D1395" t="inlineStr"/>
-      <c r="E1395" t="inlineStr"/>
-      <c r="F1395" t="inlineStr"/>
-      <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr"/>
-      <c r="I1395" t="inlineStr"/>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1396" t="inlineStr"/>
-      <c r="C1396" t="inlineStr"/>
-      <c r="D1396" t="inlineStr"/>
-      <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr"/>
-      <c r="I1396" t="inlineStr"/>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 171103P3</t>
-        </is>
-      </c>
-      <c r="B1397" t="inlineStr"/>
-      <c r="C1397" t="inlineStr"/>
-      <c r="D1397" t="inlineStr"/>
-      <c r="E1397" t="inlineStr"/>
-      <c r="F1397" t="inlineStr"/>
-      <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr"/>
-      <c r="I1397" t="inlineStr"/>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>Summarized description: Travel by both boat (April–December) and bus as you swing by Wall Street, the 9/11 Memorial, South Street Seaport, Rockefeller Center, and much more. You’ll then hop aboard a luxury boat for a sightseeing cruise past the Statue of Liberty and Ellis Island.</t>
-        </is>
-      </c>
-      <c r="B1398" t="inlineStr"/>
-      <c r="C1398" t="inlineStr"/>
-      <c r="D1398" t="inlineStr"/>
-      <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr"/>
-      <c r="I1398" t="inlineStr"/>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>Title: New York in One Day Tour</t>
-        </is>
-      </c>
-      <c r="B1399" t="inlineStr"/>
-      <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr"/>
-      <c r="E1399" t="inlineStr"/>
-      <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr"/>
-      <c r="I1399" t="inlineStr"/>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
-      <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
-      <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr"/>
-      <c r="I1400" t="inlineStr"/>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Cruises', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
-      <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr"/>
-      <c r="E1401" t="inlineStr"/>
-      <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr"/>
-      <c r="I1401" t="inlineStr"/>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 255071P10</t>
-        </is>
-      </c>
-      <c r="B1402" t="inlineStr"/>
-      <c r="C1402" t="inlineStr"/>
-      <c r="D1402" t="inlineStr"/>
-      <c r="E1402" t="inlineStr"/>
-      <c r="F1402" t="inlineStr"/>
-      <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr"/>
-      <c r="I1402" t="inlineStr"/>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the sites of the Boston Tea Party, the Boston Common and the USS Constitution. Take a tour of Harvard and MIT before heading back to New York.</t>
-        </is>
-      </c>
-      <c r="B1403" t="inlineStr"/>
-      <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr"/>
-      <c r="E1403" t="inlineStr"/>
-      <c r="F1403" t="inlineStr"/>
-      <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr"/>
-      <c r="I1403" t="inlineStr"/>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>Title: From New York : Boston and the Freedom Trail Day Trip (With Transportation)</t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr"/>
-      <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr"/>
-      <c r="E1404" t="inlineStr"/>
-      <c r="F1404" t="inlineStr"/>
-      <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr"/>
-      <c r="I1404" t="inlineStr"/>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr"/>
-      <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr"/>
-      <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr"/>
-      <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr"/>
-      <c r="I1405" t="inlineStr"/>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1406" t="inlineStr"/>
-      <c r="C1406" t="inlineStr"/>
-      <c r="D1406" t="inlineStr"/>
-      <c r="E1406" t="inlineStr"/>
-      <c r="F1406" t="inlineStr"/>
-      <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr"/>
-      <c r="I1406" t="inlineStr"/>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7030P32</t>
-        </is>
-      </c>
-      <c r="B1407" t="inlineStr"/>
-      <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="inlineStr"/>
-      <c r="E1407" t="inlineStr"/>
-      <c r="F1407" t="inlineStr"/>
-      <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr"/>
-      <c r="I1407" t="inlineStr"/>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>Summarized description: Private helicopter will conveniently depart from your preferred Manhattan heliport and land at small airport near Washington D.C. The Capital of the United States of America is not only the home to the President's but also renowned museums, monuments and memorials.</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr"/>
-      <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr"/>
-      <c r="I1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>Title: Washington D.C. Day Trip from Manhattan by Helicopter</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr"/>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr"/>
-      <c r="I1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr"/>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr"/>
-      <c r="I1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours', 'Aerial Tours']</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr"/>
-      <c r="I1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 178998P2</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr"/>
-      <c r="I1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Summarized description: Washington DC is more than four hours away from New York City by car. This tour includes round-trip transport from NYC. Your guide tells you all about the city as you ride, and you’ll stop at famous attractions and monuments.</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr"/>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr"/>
-      <c r="I1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>Title: Washington DC and PA in One day</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr"/>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr"/>
-      <c r="I1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr"/>
-      <c r="I1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
-      <c r="I1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 62527P18</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr"/>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr"/>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr"/>
-      <c r="I1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a day trip to Washington, D.C. This tour includes transportation from New York. You can get to know the city’s key sites on your own.</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr"/>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr"/>
-      <c r="I1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Title: New York City to Washington DC on your own</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr"/>
-      <c r="I1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr"/>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr"/>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr"/>
-      <c r="I1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr"/>
-      <c r="I1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 232122P5</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr"/>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr"/>
-      <c r="I1422" t="inlineStr"/>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr"/>
-      <c r="I1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>Title: 2-Day Bus Tour to Washington, D.C.,Philadelphia from New York (Super Value Tour)</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr"/>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr"/>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr"/>
-      <c r="I1424" t="inlineStr"/>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr"/>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr"/>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr"/>
-      <c r="I1425" t="inlineStr"/>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr"/>
-      <c r="I1426" t="inlineStr"/>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 235561P7</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr"/>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr"/>
-      <c r="I1427" t="inlineStr"/>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>Summarized description: The 1-day Niagara Falls Tour is the perfect opportunity to live an unforgettable adventure in this natural wonder. You can take hundreds of amazing photos, take a ride aboard the Maid of the Mist (summer) or walk through the Panoramic Tunnels (winter)</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr"/>
-      <c r="I1428" t="inlineStr"/>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>Title: Niagara Falls Tour</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
-      <c r="I1429" t="inlineStr"/>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
-      <c r="I1430" t="inlineStr"/>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr"/>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr"/>
-      <c r="I1431" t="inlineStr"/>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 324821P58</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr"/>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr"/>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr"/>
-      <c r="I1432" t="inlineStr"/>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a tour of Washington DC, the center of American democracy, and see places where real history is made. Highlights include the Capitol Hill, White House and Lincoln Memorial. Visit the Capitol and learn in depth about the U.S. government and politics.</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
-      <c r="I1433" t="inlineStr"/>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>Title: Washington DC from NYC Private One-day Trip by Car</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr"/>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr"/>
-      <c r="I1434" t="inlineStr"/>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr"/>
-      <c r="I1435" t="inlineStr"/>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr"/>
-      <c r="H1436" t="inlineStr"/>
-      <c r="I1436" t="inlineStr"/>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 15081P41</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr"/>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr"/>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr"/>
-      <c r="I1437" t="inlineStr"/>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>Summarized description: Just 60 minutes is the flight time for a trip from NYC to Niagara. Your trip includes lunch, airfare, all transfers and tickets to the famous Maid of the Mist sightseeing cruise.</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr"/>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr"/>
-      <c r="I1438" t="inlineStr"/>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>Title: New York City to Niagara Falls by Air Plus Helicopter Ride</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr"/>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr"/>
-      <c r="I1439" t="inlineStr"/>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1440" t="inlineStr"/>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr"/>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr"/>
-      <c r="I1440" t="inlineStr"/>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr"/>
-      <c r="I1441" t="inlineStr"/>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 103133P38</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-      <c r="H1442" t="inlineStr"/>
-      <c r="I1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>Summarized description: A 5-day economic tour, exploring the top US east coast cities and their premier attractions. Visit iconic attraction in New York, D.C., Philly, Boston. Enjoy Special Meals: Boston Lobster Roll and New England clam chowder.</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr"/>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr"/>
-      <c r="H1443" t="inlineStr"/>
-      <c r="I1443" t="inlineStr"/>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>Title: 5-Days Niagara Falls, Philadelphia,D.C., New York &amp; Boston from New York</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr"/>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr"/>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr"/>
-      <c r="I1444" t="inlineStr"/>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr"/>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr"/>
-      <c r="I1445" t="inlineStr"/>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr"/>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr"/>
-      <c r="I1446" t="inlineStr"/>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P51</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr"/>
-      <c r="I1447" t="inlineStr"/>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the culture and architecture of Toronto. Feel the might of the Niagara Falls. Cruise the lovely Thousand Islands. Catch a glimpse of the glitz and glamour of Millionaires Row.</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr"/>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr"/>
-      <c r="I1448" t="inlineStr"/>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>Title: 3-Day Toronto, Thousand Islands and Niagara Falls Bus Tour from New York</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr"/>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr"/>
-      <c r="I1449" t="inlineStr"/>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr"/>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr"/>
-      <c r="I1450" t="inlineStr"/>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr"/>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr"/>
-      <c r="I1451" t="inlineStr"/>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P111</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
-      <c r="I1452" t="inlineStr"/>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the culture and architecture of Toronto. Feel the might of the Niagara Falls. Cruise the lovely Thousand Islands. Catch a glimpse of the glitz and glamour of Millionaires Row.</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
-      <c r="I1453" t="inlineStr"/>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>Title: 3-Day Toronto, Thousand Islands and Niagara Falls Bus Tour from New York</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr"/>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr"/>
-      <c r="I1454" t="inlineStr"/>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr"/>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr"/>
-      <c r="I1455" t="inlineStr"/>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr"/>
-      <c r="I1456" t="inlineStr"/>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P90</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-      <c r="H1457" t="inlineStr"/>
-      <c r="I1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the culture and architecture of Toronto. Feel the might of the Niagara Falls. Cruise the lovely Thousand Islands. Catch a glimpse of the glitz and glamour of Millionaires Row.</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr"/>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr"/>
-      <c r="H1458" t="inlineStr"/>
-      <c r="I1458" t="inlineStr"/>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>Title: 3-Day Toronto, Thousand Islands and Niagara Falls Bus Tour from New York</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr"/>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr"/>
-      <c r="I1459" t="inlineStr"/>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr"/>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="inlineStr"/>
-      <c r="I1460" t="inlineStr"/>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr"/>
-      <c r="I1461" t="inlineStr"/>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P64</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr"/>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr"/>
-      <c r="I1462" t="inlineStr"/>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the culture and architecture of Toronto. Feel the might of the Niagara Falls. Cruise the lovely Thousand Islands. Catch a glimpse of the glitz and glamour of Millionaires Row.</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr"/>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr"/>
-      <c r="I1463" t="inlineStr"/>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>Title: 3-Day Toronto, Thousand Islands and Niagara Falls Bus Tour from New York</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr"/>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr"/>
-      <c r="I1464" t="inlineStr"/>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr"/>
-      <c r="I1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr"/>
-      <c r="I1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P75</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr"/>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr"/>
-      <c r="I1467" t="inlineStr"/>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the spectacular Niagara Falls! Cruise through the beautiful Thousand Islands. Have an adventure in the Howes Caverns. Cruise the Niagara Falls on the famous Maid of the Mist.</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr"/>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr"/>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr"/>
-      <c r="I1468" t="inlineStr"/>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>Title:  2-Day Niagara Falls and Thousand Islands or Secret Caverns Tour from New York</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr"/>
-      <c r="I1469" t="inlineStr"/>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr"/>
-      <c r="I1470" t="inlineStr"/>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'Adventure Sports']</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr"/>
-      <c r="I1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248057P44</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr"/>
-      <c r="I1472" t="inlineStr"/>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit Watkins Glen State Park, a nature paradise full of canyons and waterfalls. Learn more about the beautiful art and craft of glass with a visit to the Corning Museum of Glass. Ride aboard the Maid of the Mist for a close up experience with the Niagara Falls.</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
-      <c r="I1473" t="inlineStr"/>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: 2-Day Niagara Falls Tour From New York/New Jersey with Watkins Glenn &amp; Corning </t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
-      <c r="I1474" t="inlineStr"/>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
-      <c r="I1475" t="inlineStr"/>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
-      <c r="I1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
-      <c r="I1477" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/329999P26.xlsx
+++ b/experiment_results/329999P26.xlsx
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', '']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours', 'Adventure Sports']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Aerial Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15546,7 +15546,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15621,7 +15621,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P54</t>
+          <t>PRODUCTCODE: 3857DCPHIL</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Take a trip to Niagara Falls for an unforgettable trip! We prioritize your safety by traveling with thoroughly disinfected sightseeing coaches.</t>
+          <t>Summarized description: 2-day tour through Philadelphia, Washington DC and Amish country. Visit sites including the Liberty Bell, Constitution Hall, Capitol Hill, the Air and Space Museum and more.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: BEST Niagara Falls (US) 2-Day Tour from New York City </t>
+          <t>Title: 2-Day Washington DC, Philadelphia and Amish Country Tour from New York</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 154</t>
+          <t>TotalReviews: 105</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64702P4</t>
+          <t>PRODUCTCODE: 3857EAC</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls will take your breath away. Your tour will explore the New York side of the falls therefore visa is NOT required. Choose your departure from NYC late at night 11:30PM, to arrive early morning and witness the morning mist rainbows.</t>
+          <t>Summarized description: 4-day guided tour of Niagara Falls, Philadelphia, Washington DC, and Amish Country. All hotel accommodations included. We have partnered with One Tree Planted to plant one tree for every passenger.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls One Day Tour from New York City</t>
+          <t>Title: 4-day Niagara Falls, Washington DC, and Philadelphia Tour from New York</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 122</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857EAC</t>
+          <t>PRODUCTCODE: 132218P133</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: 4-day guided tour of Niagara Falls, Philadelphia, Washington DC, and Amish Country. All hotel accommodations included. We have partnered with One Tree Planted to plant one tree for every passenger.</t>
+          <t>Summarized description: Visit Toronto, Ottawa, Montreal, and Quebec in five days. Ride on the Hornblower Cruise to experience the waterfall views of Niagara Falls. You may enjoy authentic French food in Quebec at your own expense.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: 4-day Niagara Falls, Washington DC, and Philadelphia Tour from New York</t>
+          <t>Title: 5-day Niagara Falls, Toronto, Ottawa, Montreal &amp; Quebec City Tour</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P133</t>
+          <t>PRODUCTCODE: 132218P44</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Toronto, Ottawa, Montreal, and Quebec in five days. Ride on the Hornblower Cruise to experience the waterfall views of Niagara Falls. You may enjoy authentic French food in Quebec at your own expense.</t>
+          <t>Summarized description: A valid passport and visa are required to enter Canada and re-entry the U.S. All hotel rooms are based on two Full / Double beds or one King/Queen bed. Maximum occupancy per room is four travelers.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: 5-day Niagara Falls, Toronto, Ottawa, Montreal &amp; Quebec City Tour</t>
+          <t>Title: Niagara Falls, Toronto and Thousand Islands 3-Day Tour from NYC</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P44</t>
+          <t>PRODUCTCODE: 3857ECFIVE</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: A valid passport and visa are required to enter Canada and re-entry the U.S. All hotel rooms are based on two Full / Double beds or one King/Queen bed. Maximum occupancy per room is four travelers.</t>
+          <t>Summarized description: 5-day trip from New York to Washington D.C., Niagara Falls, Toronto and 1000 Islands. One Tree Planted will plant one tree for every passenger on the trip.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls, Toronto and Thousand Islands 3-Day Tour from NYC</t>
+          <t>Title: 5-Day Philadelphia, D.C., Niagara Falls and 1000 Islands Tour from New York City</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857ECFIVE</t>
+          <t>PRODUCTCODE: 132218P32</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: 5-day trip from New York to Washington D.C., Niagara Falls, Toronto and 1000 Islands. One Tree Planted will plant one tree for every passenger on the trip.</t>
+          <t>Summarized description: Visit iconic sites in New York. Pack an array of top landmarks and attractions. Walk into two of the world top ranked universities -- Havard University and MIT. Grab a bite of authentic local taste at Quincy Market.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: 5-Day Philadelphia, D.C., Niagara Falls and 1000 Islands Tour from New York City</t>
+          <t>Title: Washington D.C,Niagara Falls,Boston 6-Day Tour from New York</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>

--- a/experiment_results/329999P26.xlsx
+++ b/experiment_results/329999P26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1262"/>
+  <dimension ref="A1:I1287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', '']</t>
+          <t>Category: ['', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Scenic Tours', 'Shopping and Fashion', 'City Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Scenic Tours', 'Shopping and Fashion', 'City Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Aerial Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15396,7 +15396,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15471,7 +15471,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15621,7 +15621,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857NYCNIA</t>
+          <t>PRODUCTCODE: 62527P8</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls overnight tour is a must-do when visiting New York City. We have partnered with One Tree Planted to plant one tree for every passenger that travels with us.</t>
+          <t>Summarized description: Visit and learn about the most iconic landmarks of these two historic cities. The Lincoln Memorial, Iwo Jima Memorial, the White House, the U.S. Capitol, the Liberty Bell, Independence Hall and more.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: 2-Day Niagara Falls and Tannersville Outlet Shopping Tour from New York by Bus</t>
+          <t>Title: Washington DC and Philadelphia in One Day from NYC</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 718</t>
+          <t>TotalReviews: 1281</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P11</t>
+          <t>PRODUCTCODE: 3857NYCNIA</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: If you want to increase this amazing experience choose the option which includes Washington and Philadelphia tour. Choose this combo and save with the most popular tours outside of New York.</t>
+          <t>Summarized description:  Niagara Falls overnight tour is a must-do when visiting New York City. We have partnered with One Tree Planted to plant one tree for every passenger that travels with us.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls in One Day from New York City</t>
+          <t>Title: 2-Day Niagara Falls and Tannersville Outlet Shopping Tour from New York by Bus</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 711</t>
+          <t>TotalReviews: 718</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P43</t>
+          <t>PRODUCTCODE: 62527P11</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Visit the nation’s capital at Washington, D.C., and check out its most iconic sites including the White House, Lincoln Memorial and so much more.</t>
+          <t>Summarized description: If you want to increase this amazing experience choose the option which includes Washington and Philadelphia tour. Choose this combo and save with the most popular tours outside of New York.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: BEST Niagara Falls USA and Washington DC 3-Day Tour from New York</t>
+          <t>Title: Niagara Falls in One Day from New York City</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 177</t>
+          <t>TotalReviews: 711</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857DCPHIL</t>
+          <t>PRODUCTCODE: 132218P43</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: 2-day tour through Philadelphia, Washington DC and Amish country. Visit sites including the Liberty Bell, Constitution Hall, Capitol Hill, the Air and Space Museum and more.</t>
+          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Visit the nation’s capital at Washington, D.C., and check out its most iconic sites including the White House, Lincoln Memorial and so much more.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: 2-Day Washington DC, Philadelphia and Amish Country Tour from New York</t>
+          <t>Title: BEST Niagara Falls USA and Washington DC 3-Day Tour from New York</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 105</t>
+          <t>TotalReviews: 177</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857EAC</t>
+          <t>PRODUCTCODE: 3857DCPHIL</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: 4-day guided tour of Niagara Falls, Philadelphia, Washington DC, and Amish Country. All hotel accommodations included. We have partnered with One Tree Planted to plant one tree for every passenger.</t>
+          <t>Summarized description: 2-day tour through Philadelphia, Washington DC and Amish country. Visit sites including the Liberty Bell, Constitution Hall, Capitol Hill, the Air and Space Museum and more.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: 4-day Niagara Falls, Washington DC, and Philadelphia Tour from New York</t>
+          <t>Title: 2-Day Washington DC, Philadelphia and Amish Country Tour from New York</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 105</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P133</t>
+          <t>PRODUCTCODE: 3857EAC</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Toronto, Ottawa, Montreal, and Quebec in five days. Ride on the Hornblower Cruise to experience the waterfall views of Niagara Falls. You may enjoy authentic French food in Quebec at your own expense.</t>
+          <t>Summarized description: 4-day guided tour of Niagara Falls, Philadelphia, Washington DC, and Amish Country. All hotel accommodations included. We have partnered with One Tree Planted to plant one tree for every passenger.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: 5-day Niagara Falls, Toronto, Ottawa, Montreal &amp; Quebec City Tour</t>
+          <t>Title: 4-day Niagara Falls, Washington DC, and Philadelphia Tour from New York</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P44</t>
+          <t>PRODUCTCODE: 132218P133</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: A valid passport and visa are required to enter Canada and re-entry the U.S. All hotel rooms are based on two Full / Double beds or one King/Queen bed. Maximum occupancy per room is four travelers.</t>
+          <t>Summarized description: Visit Toronto, Ottawa, Montreal, and Quebec in five days. Ride on the Hornblower Cruise to experience the waterfall views of Niagara Falls. You may enjoy authentic French food in Quebec at your own expense.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls, Toronto and Thousand Islands 3-Day Tour from NYC</t>
+          <t>Title: 5-day Niagara Falls, Toronto, Ottawa, Montreal &amp; Quebec City Tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3857ECFIVE</t>
+          <t>PRODUCTCODE: 132218P44</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: 5-day trip from New York to Washington D.C., Niagara Falls, Toronto and 1000 Islands. One Tree Planted will plant one tree for every passenger on the trip.</t>
+          <t>Summarized description: A valid passport and visa are required to enter Canada and re-entry the U.S. All hotel rooms are based on two Full / Double beds or one King/Queen bed. Maximum occupancy per room is four travelers.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: 5-Day Philadelphia, D.C., Niagara Falls and 1000 Islands Tour from New York City</t>
+          <t>Title: Niagara Falls, Toronto and Thousand Islands 3-Day Tour from NYC</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P32</t>
+          <t>PRODUCTCODE: 62527P14</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Visit iconic sites in New York. Pack an array of top landmarks and attractions. Walk into two of the world top ranked universities -- Havard University and MIT. Grab a bite of authentic local taste at Quincy Market.</t>
+          <t>Summarized description:  Niagara Falls is one of the most important and impressive natural wonders in the world. On your visit to New York, don’t miss the opportunity to visit the Falls.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Washington D.C,Niagara Falls,Boston 6-Day Tour from New York</t>
+          <t>Title: Niagara Falls in a Day from New York City</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P287</t>
+          <t>PRODUCTCODE: 132218P310</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the nation's capital at Washington, D.C., and check out its most iconic sites including the White House, Lincoln Memorial and so much more. Visit the Corning Glass Center and watch the exquisite glass craftsmanship.Explore the power of nature and take an in-depth tour of Niagara Falls!</t>
+          <t>Summarized description:  Niagara Falls is one of the Seven "New World Wonders" Stay Overnight in scenic area hotel, few minutes walk to Niagara Falls. In-depth tour of Niagara River: Whirlpool Park, Old Fort Niagara and Great Lake Ontario.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: 3 Days Washington DC and US Side Niagara Falls Tour from New York</t>
+          <t xml:space="preserve">Title:  2-Days Niagara Falls USA, Watkins Glen and Scenic Hotel Tour </t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132218P370</t>
+          <t>PRODUCTCODE: 3857ECFIVE</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: 4-day trip includes a visit to Niagara Falls and Havard University. Foodie's Choice includes a bite of authentic local taste at Quincy Market.</t>
+          <t>Summarized description: 5-day trip from New York to Washington D.C., Niagara Falls, Toronto and 1000 Islands. One Tree Planted will plant one tree for every passenger on the trip.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: 4-Day New York Tour to Niagara Falls, Washington and Philadelphia</t>
+          <t>Title: 5-Day Philadelphia, D.C., Niagara Falls and 1000 Islands Tour from New York City</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31815P3</t>
+          <t>PRODUCTCODE: 132218P287</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks on Thanksgiving, Christmas, New Year.Capitol 360 Panorama Tour: get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
+          <t>Summarized description: Visit the nation's capital at Washington, D.C., and check out its most iconic sites including the White House, Lincoln Memorial and so much more. Visit the Corning Glass Center and watch the exquisite glass craftsmanship.Explore the power of nature and take an in-depth tour of Niagara Falls!</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 4-Day Niagara Falls, Philadelphia, Washington DC Tour from New York </t>
+          <t>Title: 3 Days Washington DC and US Side Niagara Falls Tour from New York</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P12</t>
+          <t>PRODUCTCODE: 132218P128</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls is one of the most amazing natural wonders of the world. Visit and learn about the most iconic landmarks of Washington D.C. and Philadelphia.</t>
+          <t>Summarized description: It is a 3-day tour from New York to Niagara Falls, Corning, and Thousand Island. Optional admission means you will need to pay with your own expenses for those attractions which are not included.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Two Day Combo: Niagara Falls and Washington with Philadelphia from New York</t>
+          <t>Title: 3-Day Niagara Falls, Corning &amp; Thousand Island Tour from New York</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 253929P10</t>
+          <t>PRODUCTCODE: 11413P84</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Take a trip to Niagara Falls for an unforgettable trip! We prioritize your safety by traveling with thoroughly disinfected sightseeing coaches and our professional well-trained tour escort.</t>
+          <t>Summarized description: Discover the stunning beauty and power of the world-famous Niagara Falls from above and below. Explore the pristine beauty of New England and do some bargain shopping along the way.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: New York City + Niagara Falls 2-Day Tour</t>
+          <t>Title: 2-Day Niagara Falls Experience from NYC</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31815P26</t>
+          <t>PRODUCTCODE: 64702P5</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Finger Lakes and in-depth tour of Watkins Glen State Park. Have a close touch of the Falls and experience a maximum of time at Niagara Falls.</t>
+          <t>Summarized description: Choose your departure from NYC late at night (11:30PM), and arrive early morning to witness the morning mist rainbows and hear the falls’ magnificent roars. Travel in a private vehicle with a personal chauffeur/ tour coordinator by land.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: 2-Day Niagara Falls Tour from New York or New Jersey</t>
+          <t>Title: Private Tour: Niagara Falls Day Trip from New York City</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31815P2</t>
+          <t>PRODUCTCODE: 132218P370</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Niagara Falls, Washington, DC (Capitol 360 Panorama Tour), Philadelphia (Independence Hall, Liberty Bell) Visit Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks in holidays. Get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
+          <t>Summarized description: 4-day trip includes a visit to Niagara Falls and Havard University. Foodie's Choice includes a bite of authentic local taste at Quincy Market.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: 3-Day Niagara Falls, Washington DC, Philadelphia Tour from New York/New Jersey</t>
+          <t>Title: 4-Day New York Tour to Niagara Falls, Washington and Philadelphia</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 253929P11</t>
+          <t>PRODUCTCODE: 31815P3</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the nation’s capital at Washington, D.C., and check out its most iconic sites. Visit the Corning Glass Center and watch the exquisite glass craftsmanship.Explore the power of nature and take an in-depth tour to Niagara Falls.</t>
+          <t>Summarized description: Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks on Thanksgiving, Christmas, New Year.Capitol 360 Panorama Tour: get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen from New York</t>
+          <t xml:space="preserve">Title: 4-Day Niagara Falls, Philadelphia, Washington DC Tour from New York </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11413P82</t>
+          <t>PRODUCTCODE: 401096P13</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description:  Niagara Falls, Washington DC, Philadelphia and Amish Country on this 4-day trip. Drive through amazing sceneries in Finger Lakes country, see amazing relics of United States history, and discover Amish culture.</t>
+          <t>Summarized description: Travel to the Niagara Falls, Watkins Glen National Park, Toronto, Washington, D.C., Amish Country, and Philadelphia. Explore iconic attractions across New York City.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: 4-Day Niagara Falls, Washington DC, Philadelphia &amp; Amish Country</t>
+          <t>Title: 5 Days-Perfect East</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P5</t>
+          <t>PRODUCTCODE: 253929P10</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive 3 days tour provides an opportunity to see top attractions at Niagara Falls and Washington DC. Tour package includes transportation, hotel accommodation for 2 nights and tour guide. Tour guide will explain about the popular activities to do at the Niagara Falls.</t>
+          <t>Summarized description: Visit the Corning Glass Center and watch the exquisite glass craftsmanship. Take a trip to Niagara Falls for an unforgettable trip! We prioritize your safety by traveling with thoroughly disinfected sightseeing coaches and our professional well-trained tour escort.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: In-depth Niagara Falls &amp; Washington DC Tour from New York &amp; New Jersey</t>
+          <t>Title: New York City + Niagara Falls 2-Day Tour</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P51</t>
+          <t>PRODUCTCODE: 31815P26</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Explore D.C. with an In-depth tour. Exclusive 4 day guided tour of the top attractions of US east coast. Niagara Falls, D.c., Thousand Islands and so much more!</t>
+          <t>Summarized description: Visit Finger Lakes and in-depth tour of Watkins Glen State Park. Have a close touch of the Falls and experience a maximum of time at Niagara Falls.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: 4 Days Niagara Falls, Washington D.C. &amp; Thousand Islands Tour from New York</t>
+          <t>Title: 2-Day Niagara Falls Tour from New York or New Jersey</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P22</t>
+          <t>PRODUCTCODE: 31815P2</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: 2-day trip from New York City. Travel through the Hudson Valley by train and soak up the beautiful views. Enjoy fun-filled times of sightseeing, shopping, dining, and touring.</t>
+          <t>Summarized description: Visit Niagara Falls, Washington, DC (Capitol 360 Panorama Tour), Philadelphia (Independence Hall, Liberty Bell) Visit Niagara Falls Night tour: guarantee to see the colorful lights show and fireworks in holidays. Get to the top of the Capitol building with a 360-degree view of the whole Washington DC.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: 2-Day Niagara Falls Trip from New York City by Train and Air</t>
+          <t>Title: 3-Day Niagara Falls, Washington DC, Philadelphia Tour from New York/New Jersey</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 150592P3</t>
+          <t>PRODUCTCODE: 253929P11</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: This tour includes pick-up services from/to any Midtown hotel. Our guests will fly to the Niagara Falls area and our journey will start at American side of Niagara Falls.</t>
+          <t>Summarized description: Visit the nation’s capital at Washington, D.C., and check out its most iconic sites. Visit the Corning Glass Center and watch the exquisite glass craftsmanship.Explore the power of nature and take an in-depth tour to Niagara Falls.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: 1-Day Niagara Falls Tour with Flight from New York</t>
+          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen from New York</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Scenic Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P9</t>
+          <t>PRODUCTCODE: 11413P82</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Washington, DC (White House, US Capitol, Jefferson Memorial, Korean War Veterans Memorial, Lincoln Memorial, Potomac River Cruise, Vietnam Veterans Memorial), Philadelphia, Princeton.</t>
+          <t>Summarized description:  Niagara Falls, Washington DC, Philadelphia and Amish Country on this 4-day trip. Drive through amazing sceneries in Finger Lakes country, see amazing relics of United States history, and discover Amish culture.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: 2-Day Washington DC, Philadelphia and Amish Country Tour from New York City</t>
+          <t>Title: 4-Day Niagara Falls, Washington DC, Philadelphia &amp; Amish Country</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 401096P18</t>
+          <t>PRODUCTCODE: 103133P5</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Travel by comfortable Minibus or Coach bus with a professional guide. View all landmarks including the Capitol Building, White House and Washington Monuments. Visit Arlington Cemetery and the Smithsonian Air and Space Museum.</t>
+          <t>Summarized description: Exclusive 3 days tour provides an opportunity to see top attractions at Niagara Falls and Washington DC. Tour package includes transportation, hotel accommodation for 2 nights and tour guide. Tour guide will explain about the popular activities to do at the Niagara Falls.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Washington DC Full Day Guided Tour from New York</t>
+          <t>Title: In-depth Niagara Falls &amp; Washington DC Tour from New York &amp; New Jersey</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 271207P6</t>
+          <t>PRODUCTCODE: 103133P51</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to fully experience Central Park is on a bike. The museum features an impressive collection of over 1.5 million artifacts, photographs and rare manuscripts. The highest-rating cruise allows you to sail on the New York Harbor and see the Statue of Liberty up close.</t>
+          <t>Summarized description: Explore D.C. with an In-depth tour. Exclusive 4 day guided tour of the top attractions of US east coast. Niagara Falls, D.c., Thousand Islands and so much more!</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: New York Hop-on Hop-off Tour 5 Days Packages</t>
+          <t>Title: 4 Days Niagara Falls, Washington D.C. &amp; Thousand Islands Tour from New York</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9169P27</t>
+          <t>PRODUCTCODE: 15081P22</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: 5-day trip to New York. See the Macy Thanksgiving Day Parade. Enjoy a Thanksgiving Dinner with all the trimmings. The tour also features a visit to the new 911 Museum.</t>
+          <t>Summarized description: 2-day trip from New York City. Travel through the Hudson Valley by train and soak up the beautiful views. Enjoy fun-filled times of sightseeing, shopping, dining, and touring.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: 5-Day New York and Macy's Thanksgiving Day Parade Trip from New Hampshire</t>
+          <t>Title: 2-Day Niagara Falls Trip from New York City by Train and Air</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P72</t>
+          <t>PRODUCTCODE: 150592P3</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: With free WIFI. • New York• Philadelphia                ; Liberty Bell                ; Rocky Steps                ; Lincoln                ; Amish Farm Country Country                .</t>
+          <t>Summarized description: This tour includes pick-up services from/to any Midtown hotel. Our guests will fly to the Niagara Falls area and our journey will start at American side of Niagara Falls.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: 2-Day Washington DC, Philadelphia and the Amish Country Tour from New York</t>
+          <t>Title: 1-Day Niagara Falls Tour with Flight from New York</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8517P4</t>
+          <t>PRODUCTCODE: 122220P9</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: 2-Day trip to Washington DC from New York City by Bus. A full package that offers the best value for seeing the United States of America's capital.</t>
+          <t>Summarized description: Visit Washington, DC (White House, US Capitol, Jefferson Memorial, Korean War Veterans Memorial, Lincoln Memorial, Potomac River Cruise, Vietnam Veterans Memorial), Philadelphia, Princeton.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: 2-Day Washington DC and Philadelphia Tour by Bus</t>
+          <t>Title: 2-Day Washington DC, Philadelphia and Amish Country Tour from New York City</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P69</t>
+          <t>PRODUCTCODE: 401096P18</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the spectacular Watkins Glen State Park, a nature paradise full of canyons and waterfalls. Learn more about the beautiful art and craft of glass with a visit to the Corning Museum of Glass.</t>
+          <t>Summarized description: Travel by comfortable Minibus or Coach bus with a professional guide. View all landmarks including the Capitol Building, White House and Washington Monuments. Visit Arlington Cemetery and the Smithsonian Air and Space Museum.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: 2-Day Niagara Falls Tour From New York/New Jersey with Corning Glass Museum</t>
+          <t>Title: Washington DC Full Day Guided Tour from New York</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P124</t>
+          <t>PRODUCTCODE: 8517P6</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive spring seasonal tour! Experience the best views of Spring Season - Cherry Blossom Tour. Limited Availability, Limited Dates. For more information or to book a tour, visit www.cherryblossomtour.com.</t>
+          <t>Summarized description: Three day two night tour to Niagara Falls, and Washington DC from New York City by Bus. The best value and experience for America's most famous destinations.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: 1-Day Washington D.C. Cherry Blossom Sightseeing Tour from New York/New Jersey</t>
+          <t>Title: American Dream 3 Day Tour By Bus</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 151846P229</t>
+          <t>PRODUCTCODE: 348365P4</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Washington, D.C. is home to the National Museum of Natural History and the Air and Space Museum. Ground Transportation offers free WiFi with free WiFi.</t>
+          <t>Summarized description: This day trip from NYC to Washington DC is provided in major languages and carefully designed to make sure you have an amazing experience. It is a private tour with a guide and an experienced driver who will take care of all your needs.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: 1-Day Washington, DC Tour from New York City</t>
+          <t>Title: Private Day trip from NYC to Washington, DC.( small group up to 6 people)</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P72</t>
+          <t>PRODUCTCODE: 124350P4</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about local culture with in-depth tours and activities. Encounter rich historical landmarks with expert guides. Enjoy activities and tours that are perfect for the whole family.</t>
+          <t>Summarized description: Enjoy your spring break with the breathtaking cherry blossoms in Washington D.C. Travel with professional photographer to capture all the wonders of your trip.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: 3-Day East Coast Tour From NYC: New York, Washington DC, Philadelphia</t>
+          <t>Title: Washington D.C. Cherry Blossom 1-Day Tour from New York</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P106</t>
+          <t>PRODUCTCODE: 368349P538</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: 6 day east coast tour includes New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls. Tour package includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide.</t>
+          <t>Summarized description: Discover the beating heart of the American government on a private tour of Washington DC. Visit the Smithsonian National Museum of American History and see the White House and Lincoln Memorial. Travel from NYC by private vehicle.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: 6-Day Niagara Falls, Philadelphia, D.C., NYC &amp; Boston Deluxe Tour from NY</t>
+          <t xml:space="preserve">Title: Washington DC from NYC Private Full Day Trip by Car </t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P115</t>
+          <t>PRODUCTCODE: 248057P72</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
+          <t>Summarized description: With free WIFI. • New York• Philadelphia                ; Liberty Bell                ; Rocky Steps                ; Lincoln                ; Amish Farm Country Country                .</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns</t>
+          <t>Title: 2-Day Washington DC, Philadelphia and the Amish Country Tour from New York</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 232122P4</t>
+          <t>PRODUCTCODE: 8517P4</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
+          <t>Summarized description: 2-Day trip to Washington DC from New York City by Bus. A full package that offers the best value for seeing the United States of America's capital.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns</t>
+          <t>Title: 2-Day Washington DC and Philadelphia Tour by Bus</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P48</t>
+          <t>PRODUCTCODE: 235561P8</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
+          <t>Summarized description: This 1-day tour is a great opportunity to get to know the vibrant capital of the United States, Washington DC. You will visit representative places such as the Arlington Cemetery, the White House, the Obelisk, the Iwo Jima Memorial, the Air and Space Museum and many other amazing places.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns </t>
+          <t>Title: Washington excursion</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P69</t>
+          <t>PRODUCTCODE: 103133P124</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Watkins Glen State Park is a natural paradise that boasts many canyons and waterfalls. Climb aboard the Maid of the Mist, and ride into the mists thrown up by the roaring cascade as the Niagara River tumbles over the edge of the falls.</t>
+          <t>Summarized description: Exclusive spring seasonal tour! Experience the best views of Spring Season - Cherry Blossom Tour. Limited Availability, Limited Dates. For more information or to book a tour, visit www.cherryblossomtour.com.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen, Secret Caverns </t>
+          <t>Title: 1-Day Washington D.C. Cherry Blossom Sightseeing Tour from New York/New Jersey</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 232122P1</t>
+          <t>PRODUCTCODE: 151846P229</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Learn more of the unique history, culture, and core spirit of New York City. Take in the historical sights of Philadelphia, the birthplace of American democracy. Feel the thundering power of the sights and sounds of Niagara Falls.</t>
+          <t>Summarized description: Washington, D.C. is home to the National Museum of Natural History and the Air and Space Museum. Ground Transportation offers free WiFi with free WiFi.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: 6-Day U.S. East Coast Tour Package from New York City</t>
+          <t>Title: 1-Day Washington, DC Tour from New York City</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P84</t>
+          <t>PRODUCTCODE: 145071P72</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about local culture with in-depth tours and activities. Encounter rich historical landmarks with expert guides. Visit locations designated as World Heritage Sites by the United Nations.</t>
+          <t>Summarized description: Learn about local culture with in-depth tours and activities. Encounter rich historical landmarks with expert guides. Enjoy activities and tours that are perfect for the whole family.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: 4-Day East Coast Tour from New York to Niagara Falls, Philadelphia, D.C., Boston</t>
+          <t>Title: 3-Day East Coast Tour From NYC: New York, Washington DC, Philadelphia</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P93</t>
+          <t>PRODUCTCODE: 103133P106</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Washington DC, Philadelphia, Niagara Falls, Corning Museum of Glass, Capitol Hill, Liberty Bell, Independence Hall, Jefferson Memorial, Lincoln Memorial, Thousand Islands.</t>
+          <t>Summarized description: 6 day east coast tour includes New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls. Tour package includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: 4-Day Bus Tour to Washington D.C., Niagara Falls and Amish Village from New York</t>
+          <t>Title: 6-Day Niagara Falls, Philadelphia, D.C., NYC &amp; Boston Deluxe Tour from NY</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379451P4</t>
+          <t>PRODUCTCODE: 5533P117</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: One-of-a-kind 3-day tour to Philadelphia, Washington D.C., and Niagara Falls. Enjoy the breathtaking views of Niagara Falls, explore the Corning Museum of Glass, and walk through Watkins Glen State Park.</t>
+          <t>Summarized description: The 3-Day New York tour offers a deep dive into the distinct neighborhoods and cultures that make up New York City and Washington DC. Highlights include Times Square, the Broadway Theater District, Grand Central Terminal, the Brooklyn Bridge, the Statue of Liberty, and more.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: 4-Day Tour-New York, Washington DC and Niagara Falls</t>
+          <t>Title: 3-Day New York and Washington DC&amp; Including NY Airport Transfer</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5533P114</t>
+          <t>PRODUCTCODE: 132218P260</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: 5-Day tour offers a deep dive into the distinct neighborhoods and cultures that make up New York City, Washington DC and Niagara Falls. Highlights include Times Square, the Broadway Theater District, Grand Central Terminal, the Brooklyn Bridge and more.</t>
+          <t>Summarized description: Travel with thoroughly disinfected sightseeing coach and our professional well-trained tour escort. Visit iconic sites in New York. Pack an array of top landmarks and attractions on the east coast.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: 5-Day New York+Washington DC+Niagara Falls&amp; With Airport Transfer</t>
+          <t>Title: New York, Philadelphia, D.C. 4-Day Tour with Airport Pickup</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P71</t>
+          <t>PRODUCTCODE: 232122P1</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Climb aboard the Maid of the Mist and ride into the mists thrown up by the roaring cascade. Visit Washington, D.C., the famous monuments, the vast museums, and the Americana that characterize this historic city.</t>
+          <t>Summarized description: Learn more of the unique history, culture, and core spirit of New York City. Take in the historical sights of Philadelphia, the birthplace of American democracy. Feel the thundering power of the sights and sounds of Niagara Falls.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen from New York</t>
+          <t>Title: 6-Day U.S. East Coast Tour Package from New York City</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P90</t>
+          <t>PRODUCTCODE: 145071P84</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Experience North Americas Largest Falls the "Niagara Falls" with the most famous "Maid of the Mist" Discover the United States Capital the Washington D.C. and visit the birthplace of American democracy.</t>
+          <t>Summarized description: Learn about local culture with in-depth tours and activities. Encounter rich historical landmarks with expert guides. Visit locations designated as World Heritage Sites by the United Nations.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Niagara Falls, New York, D.C. &amp; Boston Tour from New York (Airport Transfers)</t>
+          <t>Title: 4-Day East Coast Tour from New York to Niagara Falls, Philadelphia, D.C., Boston</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P102</t>
+          <t>PRODUCTCODE: 379451P4</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Tour includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide. New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls.</t>
+          <t>Summarized description: One-of-a-kind 3-day tour to Philadelphia, Washington D.C., and Niagara Falls. Enjoy the breathtaking views of Niagara Falls, explore the Corning Museum of Glass, and walk through Watkins Glen State Park.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: 6 Days USA East Coast Economic Tour from New York (with Transfers)- Group Option</t>
+          <t>Title: 4-Day Tour-New York, Washington DC and Niagara Falls</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 232122P5</t>
+          <t>PRODUCTCODE: 5533P114</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
+          <t>Summarized description: 5-Day tour offers a deep dive into the distinct neighborhoods and cultures that make up New York City, Washington DC and Niagara Falls. Highlights include Times Square, the Broadway Theater District, Grand Central Terminal, the Brooklyn Bridge and more.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: 2-Day Bus Tour to Washington, D.C.,Philadelphia from New York (Super Value Tour)</t>
+          <t>Title: 5-Day New York+Washington DC+Niagara Falls&amp; With Airport Transfer</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103133P38</t>
+          <t>PRODUCTCODE: 379451P2</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: A 5-day economic tour, exploring the top US east coast cities and their premier attractions. Visit iconic attraction in New York, D.C., Philly, Boston. Enjoy Special Meals: Boston Lobster Roll and New England clam chowder.</t>
+          <t>Summarized description: Discover the awe-inspiring beauty of Niagara Falls over three days. Then, spend a day in New York City exploring famous landmarks including One World Trade Center, Times Square, and the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: 5-Days Niagara Falls, Philadelphia,D.C., New York &amp; Boston from New York</t>
+          <t>Title: 3-Day Tour to Niagara Falls and New York City</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5533P82</t>
+          <t>PRODUCTCODE: 103133P63</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: This 3-Day tour offers a deep dive into the distinct neighborhoods and cultures that make up New York City. The tour includes two nights hotel accomodation and single-trip private airport transfer service.</t>
+          <t>Summarized description: 3-day guided tour of Niagara Falls and Washington D.C. No.1 Preferred Tour by Locals, Recommended for Short Trips. Also an extensive city tour of the best American attractions in Washington DC.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: 3 Day Tour-Best of New York and Washington DC</t>
+          <t>Title: 3 Days Niagara Falls &amp; Washington D.C. Bus Tour from New York</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P49</t>
+          <t>PRODUCTCODE: 145071P71</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
+          <t>Summarized description: Climb aboard the Maid of the Mist and ride into the mists thrown up by the roaring cascade. Visit Washington, D.C., the famous monuments, the vast museums, and the Americana that characterize this historic city.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: 2-Day Bus Tour to Washington, D.C., Philadelphia from New York</t>
+          <t>Title: 3-Day Bus Tour to Washington D.C., Niagara Falls, Watkins Glen from New York</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248057P88</t>
+          <t>PRODUCTCODE: 103133P90</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
+          <t>Summarized description: Experience North Americas Largest Falls the "Niagara Falls" with the most famous "Maid of the Mist" Discover the United States Capital the Washington D.C. and visit the birthplace of American democracy.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: 2-Day Bus Tour to Washington, D.C., Philadelphia from New York</t>
+          <t>Title: Niagara Falls, New York, D.C. &amp; Boston Tour from New York (Airport Transfers)</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 103133P11</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19429,6 +19429,381 @@
       <c r="H1262" t="inlineStr"/>
       <c r="I1262" t="inlineStr"/>
     </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide. New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls.</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr"/>
+      <c r="C1263" t="inlineStr"/>
+      <c r="D1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr"/>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr"/>
+      <c r="H1263" t="inlineStr"/>
+      <c r="I1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>Title: 6 Days USA East Coast Economic Tour from New York (with Airport Transfers)</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr"/>
+      <c r="C1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr"/>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr"/>
+      <c r="H1264" t="inlineStr"/>
+      <c r="I1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr"/>
+      <c r="C1265" t="inlineStr"/>
+      <c r="D1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr"/>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="inlineStr"/>
+      <c r="H1265" t="inlineStr"/>
+      <c r="I1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr"/>
+      <c r="C1266" t="inlineStr"/>
+      <c r="D1266" t="inlineStr"/>
+      <c r="E1266" t="inlineStr"/>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="inlineStr"/>
+      <c r="H1266" t="inlineStr"/>
+      <c r="I1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 103133P102</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr"/>
+      <c r="C1267" t="inlineStr"/>
+      <c r="D1267" t="inlineStr"/>
+      <c r="E1267" t="inlineStr"/>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="inlineStr"/>
+      <c r="H1267" t="inlineStr"/>
+      <c r="I1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour includes airport pick and drop off (JFK, LGA, EWR), transportation in coach bus, 3 star hotel for 5 nights and a tour director/guide. New York, Washington DC, Philadelphia, Boston and the most famous Niagara Falls.</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr"/>
+      <c r="C1268" t="inlineStr"/>
+      <c r="D1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr"/>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="inlineStr"/>
+      <c r="H1268" t="inlineStr"/>
+      <c r="I1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>Title: 6 Days USA East Coast Economic Tour from New York (with Transfers)- Group Option</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr"/>
+      <c r="C1269" t="inlineStr"/>
+      <c r="D1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr"/>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="inlineStr"/>
+      <c r="H1269" t="inlineStr"/>
+      <c r="I1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr"/>
+      <c r="C1270" t="inlineStr"/>
+      <c r="D1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr"/>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="inlineStr"/>
+      <c r="H1270" t="inlineStr"/>
+      <c r="I1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr"/>
+      <c r="C1271" t="inlineStr"/>
+      <c r="D1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr"/>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="inlineStr"/>
+      <c r="H1271" t="inlineStr"/>
+      <c r="I1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 103133P38</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr"/>
+      <c r="C1272" t="inlineStr"/>
+      <c r="D1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr"/>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="inlineStr"/>
+      <c r="H1272" t="inlineStr"/>
+      <c r="I1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>Summarized description: A 5-day economic tour, exploring the top US east coast cities and their premier attractions. Visit iconic attraction in New York, D.C., Philly, Boston. Enjoy Special Meals: Boston Lobster Roll and New England clam chowder.</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr"/>
+      <c r="C1273" t="inlineStr"/>
+      <c r="D1273" t="inlineStr"/>
+      <c r="E1273" t="inlineStr"/>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="inlineStr"/>
+      <c r="H1273" t="inlineStr"/>
+      <c r="I1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>Title: 5-Days Niagara Falls, Philadelphia,D.C., New York &amp; Boston from New York</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr"/>
+      <c r="C1274" t="inlineStr"/>
+      <c r="D1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="inlineStr"/>
+      <c r="H1274" t="inlineStr"/>
+      <c r="I1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr"/>
+      <c r="C1275" t="inlineStr"/>
+      <c r="D1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr"/>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="inlineStr"/>
+      <c r="H1275" t="inlineStr"/>
+      <c r="I1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr"/>
+      <c r="C1276" t="inlineStr"/>
+      <c r="D1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr"/>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="inlineStr"/>
+      <c r="H1276" t="inlineStr"/>
+      <c r="I1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 248057P49</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr"/>
+      <c r="C1277" t="inlineStr"/>
+      <c r="D1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr"/>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="inlineStr"/>
+      <c r="H1277" t="inlineStr"/>
+      <c r="I1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr"/>
+      <c r="C1278" t="inlineStr"/>
+      <c r="D1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr"/>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="inlineStr"/>
+      <c r="H1278" t="inlineStr"/>
+      <c r="I1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>Title: 2-Day Bus Tour to Washington, D.C., Philadelphia from New York</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr"/>
+      <c r="C1279" t="inlineStr"/>
+      <c r="D1279" t="inlineStr"/>
+      <c r="E1279" t="inlineStr"/>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="inlineStr"/>
+      <c r="H1279" t="inlineStr"/>
+      <c r="I1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr"/>
+      <c r="C1280" t="inlineStr"/>
+      <c r="D1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr"/>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="inlineStr"/>
+      <c r="H1280" t="inlineStr"/>
+      <c r="I1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr"/>
+      <c r="C1281" t="inlineStr"/>
+      <c r="D1281" t="inlineStr"/>
+      <c r="E1281" t="inlineStr"/>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="inlineStr"/>
+      <c r="H1281" t="inlineStr"/>
+      <c r="I1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 248057P88</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr"/>
+      <c r="C1282" t="inlineStr"/>
+      <c r="D1282" t="inlineStr"/>
+      <c r="E1282" t="inlineStr"/>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="inlineStr"/>
+      <c r="H1282" t="inlineStr"/>
+      <c r="I1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit the hub for American politics and history, Washington D.C., and tour the inside of the U.S. Capitol. Visit the historical sights of Philadelphia and enjoy a Double Decker ride through the city.</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr"/>
+      <c r="C1283" t="inlineStr"/>
+      <c r="D1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr"/>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="inlineStr"/>
+      <c r="H1283" t="inlineStr"/>
+      <c r="I1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>Title: 2-Day Bus Tour to Washington, D.C., Philadelphia from New York</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr"/>
+      <c r="C1284" t="inlineStr"/>
+      <c r="D1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr"/>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="inlineStr"/>
+      <c r="H1284" t="inlineStr"/>
+      <c r="I1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr"/>
+      <c r="C1285" t="inlineStr"/>
+      <c r="D1285" t="inlineStr"/>
+      <c r="E1285" t="inlineStr"/>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="inlineStr"/>
+      <c r="H1285" t="inlineStr"/>
+      <c r="I1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr"/>
+      <c r="C1286" t="inlineStr"/>
+      <c r="D1286" t="inlineStr"/>
+      <c r="E1286" t="inlineStr"/>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="inlineStr"/>
+      <c r="H1286" t="inlineStr"/>
+      <c r="I1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr"/>
+      <c r="C1287" t="inlineStr"/>
+      <c r="D1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr"/>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="inlineStr"/>
+      <c r="H1287" t="inlineStr"/>
+      <c r="I1287" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
